--- a/Program Manager Capstone/Stakeholder-Register-Solution.xlsx
+++ b/Program Manager Capstone/Stakeholder-Register-Solution.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28103"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\AppData\Local\Box\Box Edit\Documents\GKiYVNc+k0KRxi6U7uBcEQ==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE0A28D-C77B-4366-B02E-F6A5D6C89090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1D978913-951B-4C6F-98A3-07C6993D99FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8712"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="STakeholder" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">STakeholder!$A$1:$K$17</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -76,9 +78,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>utive Sponsor</t>
-  </si>
-  <si>
     <t>Emily Zhang</t>
   </si>
   <si>
@@ -236,13 +235,16 @@
   </si>
   <si>
     <t>Inform as project progresses</t>
+  </si>
+  <si>
+    <t>Executive Sponsor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +271,20 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -362,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -373,16 +389,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -394,6 +403,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,393 +757,380 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2FC8D7-BC3C-4F02-A04E-8B1DE93F7A66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" customWidth="1"/>
-    <col min="6" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="1" max="3" width="25.69921875" customWidth="1"/>
+    <col min="4" max="4" width="27.69921875" customWidth="1"/>
+    <col min="5" max="5" width="50.69921875" customWidth="1"/>
+    <col min="6" max="9" width="19.69921875" customWidth="1"/>
+    <col min="10" max="10" width="26.69921875" customWidth="1"/>
+    <col min="11" max="11" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.75">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.399999999999999">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="31.5">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:11" ht="30">
+      <c r="A3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.6">
+      <c r="A4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30">
+      <c r="A5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30">
+      <c r="A6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.6">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30">
+      <c r="A8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30">
+      <c r="A9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="K9" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30">
+      <c r="A10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="31.5">
-      <c r="A5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="31.5">
-      <c r="A6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="31.5">
-      <c r="A7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="31.5">
-      <c r="A8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="31.5">
-      <c r="A9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="31.5">
-      <c r="A10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="K10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="6" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="14.4" thickBot="1"/>
+    <row r="13" spans="1:11" ht="20.399999999999999">
+      <c r="A13" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="14" spans="1:11" ht="21">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="14" spans="1:11" ht="61.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="63">
-      <c r="A15" s="9"/>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="40.799999999999997">
+      <c r="A15" s="6"/>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="42">
-      <c r="A16" s="9"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="61.2">
+      <c r="A16" s="6"/>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="63">
-      <c r="A17" s="9"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="41.4" thickBot="1">
+      <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="42.75" thickBot="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A13:A17"/>
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="41" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="45" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>